--- a/klassenvoorbeeld_statistiek.xlsx
+++ b/klassenvoorbeeld_statistiek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht-my.sharepoint.com/personal/tijmen_muller_hu_nl/Documents/workspace/vakken/Programming/klassen/24-V1S/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="194" documentId="8_{BD8611BD-EF25-40BD-956E-61DB8387B522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764F797E-9778-4BBB-B525-DB4C617856A2}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{BD8611BD-EF25-40BD-956E-61DB8387B522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F105B6B-FD5E-41F1-ACD4-8ED855D3C015}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F69D1729-2F81-4851-9F8F-A83FB3A74BC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F69D1729-2F81-4851-9F8F-A83FB3A74BC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Naam</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Meetniveau</t>
   </si>
   <si>
-    <t>Scatterplot op twee variabelen</t>
-  </si>
-  <si>
     <t>Gemiddelde</t>
   </si>
   <si>
@@ -83,18 +80,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Vragen</t>
-  </si>
-  <si>
-    <t>Wat is een 'observatie'?</t>
-  </si>
-  <si>
-    <t>Wat is 'data'?</t>
-  </si>
-  <si>
-    <t>Wat een variabele? En wat is afhankelijk en onafhankelijk?</t>
-  </si>
-  <si>
     <t>Fabian</t>
   </si>
   <si>
@@ -143,9 +128,6 @@
     <t>helemaal eens</t>
   </si>
   <si>
-    <t>2003, 2004, 2007</t>
-  </si>
-  <si>
     <t>nominaal</t>
   </si>
   <si>
@@ -156,6 +138,48 @@
   </si>
   <si>
     <t>interval</t>
+  </si>
+  <si>
+    <t>KAN NIET</t>
+  </si>
+  <si>
+    <t>42; 44</t>
+  </si>
+  <si>
+    <t>2003; 2004; 2007</t>
+  </si>
+  <si>
+    <t>Lengte (cm)</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Variantie</t>
+  </si>
+  <si>
+    <t>Lengte (sorted)</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>(code)</t>
+  </si>
+  <si>
+    <t>Std. afwijking</t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>categoriaal</t>
   </si>
 </sst>
 </file>
@@ -164,7 +188,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -234,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -251,6 +275,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -258,7 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -273,8 +334,22 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -595,7 +670,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,21 +680,20 @@
     <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.140625" customWidth="1"/>
-    <col min="9" max="9" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -633,16 +707,17 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>193</v>
@@ -654,24 +729,21 @@
         <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="H2" s="18">
         <v>4</v>
       </c>
-      <c r="J2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>185</v>
@@ -683,24 +755,21 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="18">
         <v>3</v>
       </c>
-      <c r="J3">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>162</v>
@@ -712,24 +781,21 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="H4" s="18">
         <v>4</v>
       </c>
-      <c r="J4">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>172</v>
@@ -741,24 +807,21 @@
         <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="18">
         <v>3</v>
       </c>
-      <c r="J5">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>172</v>
@@ -770,24 +833,21 @@
         <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="18">
         <v>3</v>
       </c>
-      <c r="J6">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>182</v>
@@ -799,24 +859,21 @@
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7">
+        <v>17</v>
+      </c>
+      <c r="H7" s="18">
         <v>4</v>
       </c>
-      <c r="J7">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>158</v>
@@ -828,24 +885,21 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="18">
         <v>3</v>
       </c>
-      <c r="J8">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>175</v>
@@ -857,52 +911,43 @@
         <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9">
+        <v>17</v>
+      </c>
+      <c r="H9" s="18">
         <v>4</v>
       </c>
-      <c r="J9">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J12" t="s">
-        <v>5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -910,22 +955,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -941,14 +983,11 @@
       <c r="E14" s="9">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G14" s="16">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -966,14 +1005,11 @@
         <f>E14+D15</f>
         <v>0.125</v>
       </c>
-      <c r="J15" t="s">
-        <v>6</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="16">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -991,16 +1027,13 @@
         <f>E15+D16</f>
         <v>0.5</v>
       </c>
-      <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="16">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4">
         <v>4</v>
@@ -1016,16 +1049,13 @@
         <f>E16+D17</f>
         <v>1</v>
       </c>
-      <c r="J17" t="s">
-        <v>6</v>
-      </c>
-      <c r="K17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="16">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <v>0</v>
@@ -1041,111 +1071,146 @@
         <f>E17+D18</f>
         <v>1</v>
       </c>
-      <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="16">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D19" s="3"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="16">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="16">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="17">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="14">
         <f>SUM(C2:C9)/COUNT(C2:C9)</f>
         <v>174.875</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4">
+      <c r="C23" s="14">
+        <v>172</v>
+      </c>
+      <c r="D23" s="14">
         <v>173.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="14">
         <f>SUM(D2:D9)/COUNT(D2:D9)</f>
         <v>2003.125</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="14">
         <f>SUM(E2:E9)/COUNT(E2:E9)</f>
         <v>41</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4" t="e">
-        <f>SUM(F2:F9)/COUNT(F2:F9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="I26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="13">
         <f>SUM(H2:H9)/COUNT(H2:H9)</f>
         <v>3.5</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="I27" t="s">
-        <v>19</v>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="1048576" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K1048576" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:J9">
-    <sortCondition ref="J2:J9"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G14:G21">
+    <sortCondition ref="G14:G21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/klassenvoorbeeld_statistiek.xlsx
+++ b/klassenvoorbeeld_statistiek.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hogeschoolutrecht-my.sharepoint.com/personal/tijmen_muller_hu_nl/Documents/workspace/vakken/Programming/klassen/24-V1S/demo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tijmen.muller\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{BD8611BD-EF25-40BD-956E-61DB8387B522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F105B6B-FD5E-41F1-ACD4-8ED855D3C015}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E23400-F915-456C-A731-14418B113E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F69D1729-2F81-4851-9F8F-A83FB3A74BC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Naam</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>categoriaal</t>
+  </si>
+  <si>
+    <t>check:</t>
   </si>
 </sst>
 </file>
@@ -188,7 +191,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -258,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -312,6 +315,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -319,7 +335,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -335,7 +351,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -350,6 +366,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -667,10 +684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F68A009-0DFA-426E-8BAB-14C1C2B99463}">
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K1048569"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,6 +1006,14 @@
       <c r="G14" s="16">
         <v>158</v>
       </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H21" si="0">G14-$B$25</f>
+        <v>-16.875</v>
+      </c>
+      <c r="I14">
+        <f>H14*H14</f>
+        <v>284.765625</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1008,6 +1036,14 @@
       <c r="G15" s="16">
         <v>162</v>
       </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>-12.875</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I21" si="1">H15*H15</f>
+        <v>165.765625</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1030,8 +1066,16 @@
       <c r="G16" s="16">
         <v>172</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>-2.875</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>8.265625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1049,8 +1093,16 @@
         <f>E16+D17</f>
         <v>1</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="20">
         <v>172</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>-2.875</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>8.265625</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -1073,6 +1125,14 @@
       </c>
       <c r="G18" s="16">
         <v>175</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>1.5625E-2</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -1080,131 +1140,187 @@
       <c r="G19" s="16">
         <v>182</v>
       </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>7.125</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>50.765625</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G20" s="16">
         <v>185</v>
       </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>10.125</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>102.515625</v>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G21" s="17">
         <v>193</v>
       </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>18.125</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>328.515625</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
+      <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.STDEV.P(G14:G21)</f>
+        <v>10.890793129979102</v>
+      </c>
+      <c r="I22">
+        <f>SUM(I14:I21)</f>
+        <v>948.875</v>
+      </c>
+      <c r="J22">
+        <f>I22/COUNT(I14:I21)</f>
+        <v>118.609375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J24" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="14">
+      <c r="B25" s="14">
         <f>SUM(C2:C9)/COUNT(C2:C9)</f>
         <v>174.875</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C25" s="14">
         <v>172</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D25" s="14">
         <v>173.5</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E25" s="14">
+        <f>G21-G14</f>
+        <v>35</v>
+      </c>
+      <c r="F25" s="14">
+        <v>118.609375</v>
+      </c>
+      <c r="G25" s="14">
+        <f>SQRT(F25)</f>
+        <v>10.890793129979102</v>
+      </c>
+      <c r="H25" s="14">
+        <v>167</v>
+      </c>
+      <c r="I25" s="14">
+        <f>D25</f>
+        <v>173.5</v>
+      </c>
+      <c r="J25" s="14">
+        <v>183.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B26" s="14">
         <f>SUM(D2:D9)/COUNT(D2:D9)</f>
         <v>2003.125</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="14">
+      <c r="B27" s="14">
         <f>SUM(E2:E9)/COUNT(E2:E9)</f>
         <v>41</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B28" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B29" s="13">
         <f>SUM(H2:H9)/COUNT(H2:H9)</f>
         <v>3.5</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C29" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="1048576" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K1048576" t="s">
+    <row r="1048569" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K1048569" t="s">
         <v>17</v>
       </c>
     </row>
